--- a/biology/Médecine/Certificat_médical_de_classe_1/Certificat_médical_de_classe_1.xlsx
+++ b/biology/Médecine/Certificat_médical_de_classe_1/Certificat_médical_de_classe_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Certificat_m%C3%A9dical_de_classe_1</t>
+          <t>Certificat_médical_de_classe_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Certificat médical de classe 1 est un certificat délivré par une autorité agrée (DGAC) permettant de pouvoir piloter tout types d'aéronefs y compris les vols commerciaux.
 Le passage de ce certificat comprend une orthoptie avec des testes de relief, des tests de vision périphérique, une analyse de sang et d'urine, un passage devant un médecin généraliste avec une pesée, une mesure de la taille, un électrocardiogramme, une mesure de la tension artérielle, Ensuite une intervention avec un personnel de santé mesurant l'acuité auditive et un test de pression pour les tympans. Une analyse de fond d'œil est aussi effectuée avec un ophtalmologue. Enfin, le chef médecin regardera toutes les analyses et jugera de l'obtention ou non du certificat médical de classe 1.
-Le certificat a une durée de validité qui varie en fonction de l'âge et de l'état de santé du pilote, Voir source pour informations plus précises[1]
+Le certificat a une durée de validité qui varie en fonction de l'âge et de l'état de santé du pilote, Voir source pour informations plus précises
 </t>
         </is>
       </c>
